--- a/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4375" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4375" uniqueCount="357">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -776,31 +776,25 @@
     <t>dataAttoNotarile</t>
   </si>
   <si>
-    <t>Padre Sposo</t>
+    <t>Generalità padre Sposo - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(2,4,5,99)}</t>
-  </si>
-  <si>
-    <t>Padre Sposa</t>
+    <t>Generalità padre Sposa - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(2,4,5,99)}</t>
+    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposo</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposa</t>
@@ -8013,7 +8007,7 @@
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="299">
@@ -8036,7 +8030,7 @@
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="300">
@@ -8059,7 +8053,7 @@
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="301">
@@ -8082,7 +8076,7 @@
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="302">
@@ -8105,7 +8099,7 @@
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="303">
@@ -8128,7 +8122,7 @@
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="304">
@@ -8151,7 +8145,7 @@
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305">
@@ -8174,7 +8168,7 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="306">
@@ -8197,7 +8191,7 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="307">
@@ -8220,7 +8214,7 @@
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="308">
@@ -8243,7 +8237,7 @@
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309">
@@ -8266,7 +8260,7 @@
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="310">
@@ -8289,7 +8283,7 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="311">
@@ -8312,7 +8306,7 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="312">
@@ -8335,7 +8329,7 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="313">
@@ -8358,7 +8352,7 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="314">
@@ -8381,7 +8375,7 @@
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="315">
@@ -8404,7 +8398,7 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="316">
@@ -8427,7 +8421,7 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="317">
@@ -8450,7 +8444,7 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318">
@@ -8473,7 +8467,7 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="319">
@@ -8496,12 +8490,12 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>78</v>
@@ -8510,7 +8504,7 @@
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>97</v>
@@ -8519,12 +8513,12 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>80</v>
@@ -8533,7 +8527,7 @@
         <v>33</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>99</v>
@@ -8542,12 +8536,12 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>100</v>
@@ -8556,7 +8550,7 @@
         <v>33</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>101</v>
@@ -8565,12 +8559,12 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>102</v>
@@ -8579,7 +8573,7 @@
         <v>33</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>103</v>
@@ -8588,12 +8582,12 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>104</v>
@@ -8602,7 +8596,7 @@
         <v>33</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>105</v>
@@ -8611,12 +8605,12 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>106</v>
@@ -8625,7 +8619,7 @@
         <v>33</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>107</v>
@@ -8634,12 +8628,12 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>108</v>
@@ -8648,7 +8642,7 @@
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>109</v>
@@ -8657,12 +8651,12 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>110</v>
@@ -8671,7 +8665,7 @@
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>111</v>
@@ -8680,12 +8674,12 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>112</v>
@@ -8694,7 +8688,7 @@
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>113</v>
@@ -8703,12 +8697,12 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>114</v>
@@ -8717,7 +8711,7 @@
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>115</v>
@@ -8726,12 +8720,12 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>116</v>
@@ -8740,7 +8734,7 @@
         <v>33</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>117</v>
@@ -8749,12 +8743,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>118</v>
@@ -8763,7 +8757,7 @@
         <v>33</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>119</v>
@@ -8772,12 +8766,12 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>120</v>
@@ -8786,7 +8780,7 @@
         <v>33</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>121</v>
@@ -8795,12 +8789,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>122</v>
@@ -8809,7 +8803,7 @@
         <v>33</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>123</v>
@@ -8818,12 +8812,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>124</v>
@@ -8832,7 +8826,7 @@
         <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>125</v>
@@ -8841,12 +8835,12 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>126</v>
@@ -8855,7 +8849,7 @@
         <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>127</v>
@@ -8864,12 +8858,12 @@
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>128</v>
@@ -8878,7 +8872,7 @@
         <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>129</v>
@@ -8887,12 +8881,12 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>130</v>
@@ -8901,7 +8895,7 @@
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>131</v>
@@ -8910,12 +8904,12 @@
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>132</v>
@@ -8924,7 +8918,7 @@
         <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>133</v>
@@ -8933,12 +8927,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>134</v>
@@ -8947,7 +8941,7 @@
         <v>33</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>135</v>
@@ -8956,12 +8950,12 @@
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>136</v>
@@ -8970,7 +8964,7 @@
         <v>33</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>137</v>
@@ -8979,12 +8973,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>138</v>
@@ -8993,7 +8987,7 @@
         <v>33</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>139</v>
@@ -9002,12 +8996,12 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>78</v>
@@ -9016,7 +9010,7 @@
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>97</v>
@@ -9025,12 +9019,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>80</v>
@@ -9039,7 +9033,7 @@
         <v>33</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>99</v>
@@ -9048,12 +9042,12 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>100</v>
@@ -9062,7 +9056,7 @@
         <v>33</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>101</v>
@@ -9071,12 +9065,12 @@
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>102</v>
@@ -9085,7 +9079,7 @@
         <v>33</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>103</v>
@@ -9094,12 +9088,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>104</v>
@@ -9108,7 +9102,7 @@
         <v>33</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>105</v>
@@ -9117,12 +9111,12 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>106</v>
@@ -9131,7 +9125,7 @@
         <v>33</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>107</v>
@@ -9140,12 +9134,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>108</v>
@@ -9154,7 +9148,7 @@
         <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>109</v>
@@ -9163,12 +9157,12 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>110</v>
@@ -9177,7 +9171,7 @@
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>111</v>
@@ -9186,12 +9180,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>112</v>
@@ -9200,7 +9194,7 @@
         <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>113</v>
@@ -9209,12 +9203,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>114</v>
@@ -9223,7 +9217,7 @@
         <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>115</v>
@@ -9232,12 +9226,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>116</v>
@@ -9246,7 +9240,7 @@
         <v>33</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>117</v>
@@ -9255,12 +9249,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>118</v>
@@ -9269,7 +9263,7 @@
         <v>33</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>119</v>
@@ -9278,12 +9272,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>120</v>
@@ -9292,7 +9286,7 @@
         <v>33</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>121</v>
@@ -9301,12 +9295,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>122</v>
@@ -9315,7 +9309,7 @@
         <v>33</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>123</v>
@@ -9324,12 +9318,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>124</v>
@@ -9338,7 +9332,7 @@
         <v>9</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>125</v>
@@ -9347,12 +9341,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>126</v>
@@ -9361,7 +9355,7 @@
         <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>127</v>
@@ -9370,12 +9364,12 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>128</v>
@@ -9384,7 +9378,7 @@
         <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>129</v>
@@ -9393,12 +9387,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>130</v>
@@ -9407,7 +9401,7 @@
         <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>131</v>
@@ -9416,12 +9410,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>132</v>
@@ -9430,7 +9424,7 @@
         <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>133</v>
@@ -9439,12 +9433,12 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>134</v>
@@ -9453,7 +9447,7 @@
         <v>33</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>135</v>
@@ -9462,12 +9456,12 @@
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>136</v>
@@ -9476,7 +9470,7 @@
         <v>33</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>137</v>
@@ -9485,12 +9479,12 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>138</v>
@@ -9499,7 +9493,7 @@
         <v>33</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>139</v>
@@ -9508,12 +9502,12 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>78</v>
@@ -9522,7 +9516,7 @@
         <v>9</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>97</v>
@@ -9531,12 +9525,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>80</v>
@@ -9545,7 +9539,7 @@
         <v>33</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>99</v>
@@ -9554,12 +9548,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>100</v>
@@ -9568,7 +9562,7 @@
         <v>33</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>101</v>
@@ -9577,12 +9571,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>102</v>
@@ -9591,7 +9585,7 @@
         <v>33</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>103</v>
@@ -9600,12 +9594,12 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>104</v>
@@ -9614,7 +9608,7 @@
         <v>33</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>105</v>
@@ -9623,12 +9617,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>106</v>
@@ -9637,7 +9631,7 @@
         <v>33</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>107</v>
@@ -9646,12 +9640,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>108</v>
@@ -9660,7 +9654,7 @@
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>109</v>
@@ -9669,12 +9663,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>110</v>
@@ -9683,7 +9677,7 @@
         <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>111</v>
@@ -9692,12 +9686,12 @@
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>112</v>
@@ -9706,7 +9700,7 @@
         <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>113</v>
@@ -9715,12 +9709,12 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>114</v>
@@ -9729,7 +9723,7 @@
         <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>115</v>
@@ -9738,12 +9732,12 @@
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>116</v>
@@ -9752,7 +9746,7 @@
         <v>33</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>117</v>
@@ -9761,12 +9755,12 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>118</v>
@@ -9775,7 +9769,7 @@
         <v>33</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>119</v>
@@ -9784,12 +9778,12 @@
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>120</v>
@@ -9798,7 +9792,7 @@
         <v>33</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>121</v>
@@ -9807,12 +9801,12 @@
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>122</v>
@@ -9821,7 +9815,7 @@
         <v>33</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>123</v>
@@ -9830,12 +9824,12 @@
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>124</v>
@@ -9844,7 +9838,7 @@
         <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>125</v>
@@ -9853,12 +9847,12 @@
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>126</v>
@@ -9867,7 +9861,7 @@
         <v>9</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>127</v>
@@ -9876,12 +9870,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>128</v>
@@ -9890,7 +9884,7 @@
         <v>9</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>129</v>
@@ -9899,12 +9893,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>130</v>
@@ -9913,7 +9907,7 @@
         <v>9</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>131</v>
@@ -9922,12 +9916,12 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>132</v>
@@ -9936,7 +9930,7 @@
         <v>9</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>133</v>
@@ -9945,12 +9939,12 @@
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>134</v>
@@ -9959,7 +9953,7 @@
         <v>33</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>135</v>
@@ -9968,12 +9962,12 @@
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>136</v>
@@ -9982,7 +9976,7 @@
         <v>33</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>137</v>
@@ -9991,12 +9985,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>138</v>
@@ -10005,7 +9999,7 @@
         <v>33</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>139</v>
@@ -10014,12 +10008,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>78</v>
@@ -10037,12 +10031,12 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>80</v>
@@ -10060,12 +10054,12 @@
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>100</v>
@@ -10083,12 +10077,12 @@
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>102</v>
@@ -10106,12 +10100,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>104</v>
@@ -10129,12 +10123,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>106</v>
@@ -10152,12 +10146,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>108</v>
@@ -10175,12 +10169,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>110</v>
@@ -10198,12 +10192,12 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>112</v>
@@ -10221,12 +10215,12 @@
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>114</v>
@@ -10244,12 +10238,12 @@
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>116</v>
@@ -10267,12 +10261,12 @@
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>118</v>
@@ -10290,12 +10284,12 @@
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>120</v>
@@ -10313,12 +10307,12 @@
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>122</v>
@@ -10336,12 +10330,12 @@
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>124</v>
@@ -10359,12 +10353,12 @@
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>126</v>
@@ -10382,12 +10376,12 @@
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>128</v>
@@ -10405,12 +10399,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>130</v>
@@ -10428,12 +10422,12 @@
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>132</v>
@@ -10451,12 +10445,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>134</v>
@@ -10474,12 +10468,12 @@
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>136</v>
@@ -10497,12 +10491,12 @@
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>138</v>
@@ -10520,12 +10514,12 @@
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>78</v>
@@ -10543,12 +10537,12 @@
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>80</v>
@@ -10566,12 +10560,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>100</v>
@@ -10589,12 +10583,12 @@
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>102</v>
@@ -10612,12 +10606,12 @@
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>104</v>
@@ -10635,12 +10629,12 @@
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>106</v>
@@ -10658,12 +10652,12 @@
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>108</v>
@@ -10681,12 +10675,12 @@
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>110</v>
@@ -10704,12 +10698,12 @@
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>112</v>
@@ -10727,12 +10721,12 @@
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>114</v>
@@ -10750,12 +10744,12 @@
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>116</v>
@@ -10773,12 +10767,12 @@
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>118</v>
@@ -10796,12 +10790,12 @@
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>120</v>
@@ -10819,12 +10813,12 @@
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>122</v>
@@ -10842,12 +10836,12 @@
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>124</v>
@@ -10865,12 +10859,12 @@
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>126</v>
@@ -10888,12 +10882,12 @@
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>128</v>
@@ -10911,12 +10905,12 @@
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>130</v>
@@ -10934,12 +10928,12 @@
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>132</v>
@@ -10957,12 +10951,12 @@
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>134</v>
@@ -10980,12 +10974,12 @@
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>136</v>
@@ -11003,12 +10997,12 @@
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>138</v>
@@ -11026,12 +11020,12 @@
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>78</v>
@@ -11040,21 +11034,21 @@
         <v>9</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>80</v>
@@ -11063,7 +11057,7 @@
         <v>33</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>99</v>
@@ -11072,12 +11066,12 @@
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>100</v>
@@ -11086,7 +11080,7 @@
         <v>33</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>101</v>
@@ -11095,12 +11089,12 @@
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>102</v>
@@ -11109,7 +11103,7 @@
         <v>33</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>103</v>
@@ -11118,12 +11112,12 @@
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>104</v>
@@ -11132,7 +11126,7 @@
         <v>33</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>105</v>
@@ -11141,12 +11135,12 @@
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>106</v>
@@ -11155,7 +11149,7 @@
         <v>33</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>107</v>
@@ -11164,12 +11158,12 @@
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>108</v>
@@ -11178,7 +11172,7 @@
         <v>9</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>109</v>
@@ -11187,12 +11181,12 @@
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>110</v>
@@ -11201,7 +11195,7 @@
         <v>9</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>111</v>
@@ -11210,12 +11204,12 @@
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>112</v>
@@ -11224,7 +11218,7 @@
         <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>113</v>
@@ -11233,12 +11227,12 @@
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>114</v>
@@ -11247,7 +11241,7 @@
         <v>9</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>115</v>
@@ -11256,12 +11250,12 @@
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>116</v>
@@ -11270,7 +11264,7 @@
         <v>33</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>117</v>
@@ -11279,12 +11273,12 @@
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>118</v>
@@ -11293,7 +11287,7 @@
         <v>33</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>119</v>
@@ -11302,12 +11296,12 @@
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>120</v>
@@ -11316,7 +11310,7 @@
         <v>33</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>121</v>
@@ -11325,12 +11319,12 @@
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>122</v>
@@ -11339,7 +11333,7 @@
         <v>33</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>123</v>
@@ -11348,12 +11342,12 @@
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>124</v>
@@ -11362,7 +11356,7 @@
         <v>9</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>125</v>
@@ -11371,12 +11365,12 @@
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>126</v>
@@ -11385,7 +11379,7 @@
         <v>9</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>127</v>
@@ -11394,12 +11388,12 @@
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>128</v>
@@ -11408,7 +11402,7 @@
         <v>9</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>129</v>
@@ -11417,12 +11411,12 @@
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>130</v>
@@ -11431,7 +11425,7 @@
         <v>9</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>131</v>
@@ -11440,12 +11434,12 @@
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>132</v>
@@ -11454,7 +11448,7 @@
         <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>133</v>
@@ -11463,12 +11457,12 @@
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>134</v>
@@ -11477,7 +11471,7 @@
         <v>33</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>135</v>
@@ -11486,12 +11480,12 @@
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>136</v>
@@ -11500,7 +11494,7 @@
         <v>33</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>137</v>
@@ -11509,12 +11503,12 @@
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>138</v>
@@ -11523,7 +11517,7 @@
         <v>33</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>139</v>
@@ -11532,58 +11526,58 @@
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B452" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E452" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D452" s="2" t="s">
+      <c r="F452" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G452" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="E452" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F452" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G452" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D453" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G453" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="E453" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F453" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G453" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>78</v>
@@ -11592,21 +11586,21 @@
         <v>9</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F454" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>80</v>
@@ -11615,7 +11609,7 @@
         <v>33</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>99</v>
@@ -11624,12 +11618,12 @@
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>100</v>
@@ -11638,7 +11632,7 @@
         <v>33</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>101</v>
@@ -11647,12 +11641,12 @@
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>102</v>
@@ -11661,7 +11655,7 @@
         <v>33</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>103</v>
@@ -11670,12 +11664,12 @@
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>104</v>
@@ -11684,7 +11678,7 @@
         <v>33</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>105</v>
@@ -11693,12 +11687,12 @@
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>106</v>
@@ -11707,7 +11701,7 @@
         <v>33</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>107</v>
@@ -11716,12 +11710,12 @@
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>108</v>
@@ -11730,7 +11724,7 @@
         <v>9</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>109</v>
@@ -11739,12 +11733,12 @@
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>110</v>
@@ -11753,7 +11747,7 @@
         <v>9</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>111</v>
@@ -11762,12 +11756,12 @@
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>112</v>
@@ -11776,7 +11770,7 @@
         <v>9</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>113</v>
@@ -11785,12 +11779,12 @@
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>114</v>
@@ -11799,7 +11793,7 @@
         <v>9</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>115</v>
@@ -11808,12 +11802,12 @@
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>116</v>
@@ -11822,7 +11816,7 @@
         <v>33</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>117</v>
@@ -11831,12 +11825,12 @@
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>118</v>
@@ -11845,7 +11839,7 @@
         <v>33</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>119</v>
@@ -11854,12 +11848,12 @@
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>120</v>
@@ -11868,7 +11862,7 @@
         <v>33</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>121</v>
@@ -11877,12 +11871,12 @@
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>122</v>
@@ -11891,7 +11885,7 @@
         <v>33</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>123</v>
@@ -11900,12 +11894,12 @@
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>124</v>
@@ -11914,7 +11908,7 @@
         <v>9</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>125</v>
@@ -11923,12 +11917,12 @@
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>126</v>
@@ -11937,7 +11931,7 @@
         <v>9</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>127</v>
@@ -11946,12 +11940,12 @@
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>128</v>
@@ -11960,7 +11954,7 @@
         <v>9</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>129</v>
@@ -11969,12 +11963,12 @@
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>130</v>
@@ -11983,7 +11977,7 @@
         <v>9</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>131</v>
@@ -11992,12 +11986,12 @@
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>132</v>
@@ -12006,7 +12000,7 @@
         <v>9</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>133</v>
@@ -12015,12 +12009,12 @@
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>134</v>
@@ -12029,7 +12023,7 @@
         <v>33</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>135</v>
@@ -12038,12 +12032,12 @@
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>136</v>
@@ -12052,7 +12046,7 @@
         <v>33</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>137</v>
@@ -12061,12 +12055,12 @@
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>138</v>
@@ -12075,7 +12069,7 @@
         <v>33</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>139</v>
@@ -12084,12 +12078,12 @@
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>199</v>
@@ -12098,7 +12092,7 @@
         <v>9</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>201</v>
@@ -12107,12 +12101,12 @@
         <v>40</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>203</v>
@@ -12121,7 +12115,7 @@
         <v>9</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E477" s="2" t="s">
         <v>204</v>
@@ -12130,12 +12124,12 @@
         <v>40</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>205</v>
@@ -12144,7 +12138,7 @@
         <v>9</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>206</v>
@@ -12153,12 +12147,12 @@
         <v>40</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>207</v>
@@ -12167,7 +12161,7 @@
         <v>9</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>208</v>
@@ -12176,12 +12170,12 @@
         <v>10</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>209</v>
@@ -12190,7 +12184,7 @@
         <v>9</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>210</v>
@@ -12199,12 +12193,12 @@
         <v>40</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>211</v>
@@ -12213,7 +12207,7 @@
         <v>9</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>212</v>
@@ -12222,12 +12216,12 @@
         <v>10</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>213</v>
@@ -12236,7 +12230,7 @@
         <v>9</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>214</v>
@@ -12245,12 +12239,12 @@
         <v>40</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>175</v>
@@ -12259,7 +12253,7 @@
         <v>9</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>177</v>
@@ -12273,7 +12267,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>178</v>
@@ -12282,7 +12276,7 @@
         <v>33</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>179</v>
@@ -12296,7 +12290,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>180</v>
@@ -12305,7 +12299,7 @@
         <v>33</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E485" s="2" t="s">
         <v>181</v>
@@ -12319,7 +12313,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>182</v>
@@ -12328,7 +12322,7 @@
         <v>33</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E486" s="2" t="s">
         <v>183</v>
@@ -12342,7 +12336,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>184</v>
@@ -12351,7 +12345,7 @@
         <v>33</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>185</v>
@@ -12365,7 +12359,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>186</v>
@@ -12374,7 +12368,7 @@
         <v>33</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E488" s="2" t="s">
         <v>187</v>
@@ -12388,7 +12382,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>188</v>
@@ -12397,7 +12391,7 @@
         <v>33</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E489" s="2" t="s">
         <v>59</v>
@@ -12411,7 +12405,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>189</v>
@@ -12420,7 +12414,7 @@
         <v>33</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E490" s="2" t="s">
         <v>190</v>
@@ -12434,7 +12428,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>191</v>
@@ -12443,7 +12437,7 @@
         <v>33</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E491" s="2" t="s">
         <v>62</v>
@@ -12457,7 +12451,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>192</v>
@@ -12466,7 +12460,7 @@
         <v>33</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E492" s="2" t="s">
         <v>193</v>
@@ -12480,7 +12474,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>194</v>
@@ -12489,7 +12483,7 @@
         <v>9</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E493" s="2" t="s">
         <v>195</v>
@@ -12503,7 +12497,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>196</v>
@@ -12512,7 +12506,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>197</v>
@@ -12526,19 +12520,19 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E495" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B495" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D495" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E495" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>10</v>
@@ -12549,7 +12543,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>78</v>
@@ -12558,7 +12552,7 @@
         <v>9</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E496" s="2" t="s">
         <v>97</v>
@@ -12567,12 +12561,12 @@
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>80</v>
@@ -12581,7 +12575,7 @@
         <v>33</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>99</v>
@@ -12590,12 +12584,12 @@
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>100</v>
@@ -12604,7 +12598,7 @@
         <v>33</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>101</v>
@@ -12613,12 +12607,12 @@
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>102</v>
@@ -12627,7 +12621,7 @@
         <v>33</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>103</v>
@@ -12636,12 +12630,12 @@
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>104</v>
@@ -12650,7 +12644,7 @@
         <v>33</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>105</v>
@@ -12659,12 +12653,12 @@
         <v>10</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>106</v>
@@ -12673,7 +12667,7 @@
         <v>33</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>107</v>
@@ -12682,12 +12676,12 @@
         <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>108</v>
@@ -12696,7 +12690,7 @@
         <v>9</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>109</v>
@@ -12705,12 +12699,12 @@
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>110</v>
@@ -12719,7 +12713,7 @@
         <v>9</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>111</v>
@@ -12728,12 +12722,12 @@
         <v>10</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>112</v>
@@ -12742,7 +12736,7 @@
         <v>9</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>113</v>
@@ -12751,12 +12745,12 @@
         <v>10</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>114</v>
@@ -12765,7 +12759,7 @@
         <v>9</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>115</v>
@@ -12774,12 +12768,12 @@
         <v>10</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>116</v>
@@ -12788,7 +12782,7 @@
         <v>33</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>117</v>
@@ -12797,12 +12791,12 @@
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>118</v>
@@ -12811,7 +12805,7 @@
         <v>33</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>119</v>
@@ -12820,12 +12814,12 @@
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>120</v>
@@ -12834,7 +12828,7 @@
         <v>33</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>121</v>
@@ -12843,12 +12837,12 @@
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>122</v>
@@ -12857,7 +12851,7 @@
         <v>33</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>123</v>
@@ -12866,12 +12860,12 @@
         <v>10</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>124</v>
@@ -12880,7 +12874,7 @@
         <v>9</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>125</v>
@@ -12889,12 +12883,12 @@
         <v>10</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>126</v>
@@ -12903,7 +12897,7 @@
         <v>9</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E511" s="2" t="s">
         <v>127</v>
@@ -12912,12 +12906,12 @@
         <v>10</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>128</v>
@@ -12926,7 +12920,7 @@
         <v>9</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>129</v>
@@ -12935,12 +12929,12 @@
         <v>10</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>130</v>
@@ -12949,7 +12943,7 @@
         <v>9</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>131</v>
@@ -12958,12 +12952,12 @@
         <v>10</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>132</v>
@@ -12972,7 +12966,7 @@
         <v>9</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>133</v>
@@ -12981,12 +12975,12 @@
         <v>10</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>134</v>
@@ -12995,7 +12989,7 @@
         <v>33</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>135</v>
@@ -13004,12 +12998,12 @@
         <v>10</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>136</v>
@@ -13018,7 +13012,7 @@
         <v>33</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>137</v>
@@ -13027,12 +13021,12 @@
         <v>10</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>138</v>
@@ -13041,7 +13035,7 @@
         <v>33</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>139</v>
@@ -13050,12 +13044,12 @@
         <v>10</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>78</v>
@@ -13064,7 +13058,7 @@
         <v>9</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E518" s="2" t="s">
         <v>97</v>
@@ -13073,12 +13067,12 @@
         <v>10</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>80</v>
@@ -13087,7 +13081,7 @@
         <v>33</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E519" s="2" t="s">
         <v>99</v>
@@ -13096,12 +13090,12 @@
         <v>10</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>100</v>
@@ -13110,7 +13104,7 @@
         <v>33</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E520" s="2" t="s">
         <v>101</v>
@@ -13119,12 +13113,12 @@
         <v>10</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>102</v>
@@ -13133,7 +13127,7 @@
         <v>33</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>103</v>
@@ -13142,12 +13136,12 @@
         <v>10</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>104</v>
@@ -13156,7 +13150,7 @@
         <v>33</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>105</v>
@@ -13165,12 +13159,12 @@
         <v>10</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>106</v>
@@ -13179,7 +13173,7 @@
         <v>33</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>107</v>
@@ -13188,12 +13182,12 @@
         <v>10</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>108</v>
@@ -13202,7 +13196,7 @@
         <v>9</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>109</v>
@@ -13211,12 +13205,12 @@
         <v>10</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>110</v>
@@ -13225,7 +13219,7 @@
         <v>9</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>111</v>
@@ -13234,12 +13228,12 @@
         <v>10</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>112</v>
@@ -13248,7 +13242,7 @@
         <v>9</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>113</v>
@@ -13257,12 +13251,12 @@
         <v>10</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>114</v>
@@ -13271,7 +13265,7 @@
         <v>9</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>115</v>
@@ -13280,12 +13274,12 @@
         <v>10</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>116</v>
@@ -13294,7 +13288,7 @@
         <v>33</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>117</v>
@@ -13303,12 +13297,12 @@
         <v>10</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>118</v>
@@ -13317,7 +13311,7 @@
         <v>33</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E529" s="2" t="s">
         <v>119</v>
@@ -13326,12 +13320,12 @@
         <v>10</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>120</v>
@@ -13340,7 +13334,7 @@
         <v>33</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>121</v>
@@ -13349,12 +13343,12 @@
         <v>10</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>122</v>
@@ -13363,7 +13357,7 @@
         <v>33</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>123</v>
@@ -13372,12 +13366,12 @@
         <v>10</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>124</v>
@@ -13386,7 +13380,7 @@
         <v>9</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E532" s="2" t="s">
         <v>125</v>
@@ -13395,12 +13389,12 @@
         <v>10</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>126</v>
@@ -13409,7 +13403,7 @@
         <v>9</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>127</v>
@@ -13418,12 +13412,12 @@
         <v>10</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B534" s="2" t="s">
         <v>128</v>
@@ -13432,7 +13426,7 @@
         <v>9</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>129</v>
@@ -13441,12 +13435,12 @@
         <v>10</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B535" s="2" t="s">
         <v>130</v>
@@ -13455,7 +13449,7 @@
         <v>9</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>131</v>
@@ -13464,12 +13458,12 @@
         <v>10</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>132</v>
@@ -13478,7 +13472,7 @@
         <v>9</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>133</v>
@@ -13487,12 +13481,12 @@
         <v>10</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>134</v>
@@ -13501,7 +13495,7 @@
         <v>33</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>135</v>
@@ -13510,12 +13504,12 @@
         <v>10</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B538" s="2" t="s">
         <v>136</v>
@@ -13524,7 +13518,7 @@
         <v>33</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>137</v>
@@ -13533,12 +13527,12 @@
         <v>10</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>138</v>
@@ -13547,7 +13541,7 @@
         <v>33</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>139</v>
@@ -13556,58 +13550,58 @@
         <v>10</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E540" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="F540" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G540" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C540" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E540" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F540" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G540" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>199</v>
@@ -13616,7 +13610,7 @@
         <v>9</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>201</v>
@@ -13625,12 +13619,12 @@
         <v>40</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>203</v>
@@ -13639,7 +13633,7 @@
         <v>9</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>204</v>
@@ -13648,12 +13642,12 @@
         <v>40</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>205</v>
@@ -13662,7 +13656,7 @@
         <v>9</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>206</v>
@@ -13671,12 +13665,12 @@
         <v>40</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B545" s="2" t="s">
         <v>207</v>
@@ -13685,7 +13679,7 @@
         <v>9</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>208</v>
@@ -13694,12 +13688,12 @@
         <v>10</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>209</v>
@@ -13708,7 +13702,7 @@
         <v>9</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>210</v>
@@ -13717,12 +13711,12 @@
         <v>40</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>211</v>
@@ -13731,7 +13725,7 @@
         <v>9</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>212</v>
@@ -13740,12 +13734,12 @@
         <v>10</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>213</v>
@@ -13754,7 +13748,7 @@
         <v>9</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E548" s="2" t="s">
         <v>214</v>
@@ -13763,12 +13757,12 @@
         <v>40</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>175</v>
@@ -13777,7 +13771,7 @@
         <v>9</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>177</v>
@@ -13786,12 +13780,12 @@
         <v>10</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>178</v>
@@ -13800,7 +13794,7 @@
         <v>33</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>179</v>
@@ -13809,12 +13803,12 @@
         <v>10</v>
       </c>
       <c r="G550" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>180</v>
@@ -13823,7 +13817,7 @@
         <v>33</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E551" s="2" t="s">
         <v>181</v>
@@ -13832,12 +13826,12 @@
         <v>10</v>
       </c>
       <c r="G551" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>182</v>
@@ -13846,7 +13840,7 @@
         <v>33</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E552" s="2" t="s">
         <v>183</v>
@@ -13855,12 +13849,12 @@
         <v>10</v>
       </c>
       <c r="G552" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B553" s="2" t="s">
         <v>184</v>
@@ -13869,7 +13863,7 @@
         <v>33</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E553" s="2" t="s">
         <v>185</v>
@@ -13878,12 +13872,12 @@
         <v>10</v>
       </c>
       <c r="G553" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B554" s="2" t="s">
         <v>186</v>
@@ -13892,7 +13886,7 @@
         <v>33</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>187</v>
@@ -13901,12 +13895,12 @@
         <v>10</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>188</v>
@@ -13915,7 +13909,7 @@
         <v>33</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E555" s="2" t="s">
         <v>59</v>
@@ -13924,12 +13918,12 @@
         <v>10</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>189</v>
@@ -13938,7 +13932,7 @@
         <v>33</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E556" s="2" t="s">
         <v>190</v>
@@ -13947,12 +13941,12 @@
         <v>10</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B557" s="2" t="s">
         <v>191</v>
@@ -13961,7 +13955,7 @@
         <v>33</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E557" s="2" t="s">
         <v>62</v>
@@ -13970,12 +13964,12 @@
         <v>10</v>
       </c>
       <c r="G557" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>192</v>
@@ -13984,7 +13978,7 @@
         <v>33</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E558" s="2" t="s">
         <v>193</v>
@@ -13993,12 +13987,12 @@
         <v>10</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B559" s="2" t="s">
         <v>194</v>
@@ -14007,7 +14001,7 @@
         <v>9</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>195</v>
@@ -14016,12 +14010,12 @@
         <v>10</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B560" s="2" t="s">
         <v>196</v>
@@ -14030,7 +14024,7 @@
         <v>9</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>197</v>
@@ -14039,12 +14033,12 @@
         <v>10</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>78</v>
@@ -14053,7 +14047,7 @@
         <v>9</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E561" s="2" t="s">
         <v>97</v>
@@ -14062,12 +14056,12 @@
         <v>10</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B562" s="2" t="s">
         <v>80</v>
@@ -14076,7 +14070,7 @@
         <v>9</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E562" s="2" t="s">
         <v>99</v>
@@ -14085,12 +14079,12 @@
         <v>10</v>
       </c>
       <c r="G562" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B563" s="2" t="s">
         <v>100</v>
@@ -14099,7 +14093,7 @@
         <v>9</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E563" s="2" t="s">
         <v>101</v>
@@ -14108,12 +14102,12 @@
         <v>10</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B564" s="2" t="s">
         <v>102</v>
@@ -14122,7 +14116,7 @@
         <v>9</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E564" s="2" t="s">
         <v>103</v>
@@ -14131,12 +14125,12 @@
         <v>10</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B565" s="2" t="s">
         <v>104</v>
@@ -14145,7 +14139,7 @@
         <v>9</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E565" s="2" t="s">
         <v>105</v>
@@ -14154,12 +14148,12 @@
         <v>10</v>
       </c>
       <c r="G565" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B566" s="2" t="s">
         <v>106</v>
@@ -14168,7 +14162,7 @@
         <v>9</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>107</v>
@@ -14177,12 +14171,12 @@
         <v>10</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B567" s="2" t="s">
         <v>108</v>
@@ -14191,7 +14185,7 @@
         <v>9</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E567" s="2" t="s">
         <v>109</v>
@@ -14200,12 +14194,12 @@
         <v>10</v>
       </c>
       <c r="G567" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B568" s="2" t="s">
         <v>110</v>
@@ -14214,7 +14208,7 @@
         <v>9</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E568" s="2" t="s">
         <v>111</v>
@@ -14223,12 +14217,12 @@
         <v>10</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B569" s="2" t="s">
         <v>112</v>
@@ -14237,7 +14231,7 @@
         <v>9</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E569" s="2" t="s">
         <v>113</v>
@@ -14246,12 +14240,12 @@
         <v>10</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B570" s="2" t="s">
         <v>114</v>
@@ -14260,7 +14254,7 @@
         <v>9</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E570" s="2" t="s">
         <v>115</v>
@@ -14269,12 +14263,12 @@
         <v>10</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B571" s="2" t="s">
         <v>116</v>
@@ -14283,7 +14277,7 @@
         <v>9</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E571" s="2" t="s">
         <v>117</v>
@@ -14292,12 +14286,12 @@
         <v>10</v>
       </c>
       <c r="G571" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>118</v>
@@ -14306,7 +14300,7 @@
         <v>9</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E572" s="2" t="s">
         <v>119</v>
@@ -14315,12 +14309,12 @@
         <v>10</v>
       </c>
       <c r="G572" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>120</v>
@@ -14329,7 +14323,7 @@
         <v>9</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E573" s="2" t="s">
         <v>121</v>
@@ -14338,12 +14332,12 @@
         <v>10</v>
       </c>
       <c r="G573" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>122</v>
@@ -14352,7 +14346,7 @@
         <v>9</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>123</v>
@@ -14361,12 +14355,12 @@
         <v>10</v>
       </c>
       <c r="G574" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>124</v>
@@ -14375,7 +14369,7 @@
         <v>9</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E575" s="2" t="s">
         <v>125</v>
@@ -14384,12 +14378,12 @@
         <v>10</v>
       </c>
       <c r="G575" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>126</v>
@@ -14398,7 +14392,7 @@
         <v>9</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E576" s="2" t="s">
         <v>127</v>
@@ -14407,12 +14401,12 @@
         <v>10</v>
       </c>
       <c r="G576" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>128</v>
@@ -14421,7 +14415,7 @@
         <v>9</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>129</v>
@@ -14430,12 +14424,12 @@
         <v>10</v>
       </c>
       <c r="G577" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B578" s="2" t="s">
         <v>130</v>
@@ -14444,7 +14438,7 @@
         <v>9</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>131</v>
@@ -14453,12 +14447,12 @@
         <v>10</v>
       </c>
       <c r="G578" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B579" s="2" t="s">
         <v>132</v>
@@ -14467,7 +14461,7 @@
         <v>9</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>133</v>
@@ -14476,12 +14470,12 @@
         <v>10</v>
       </c>
       <c r="G579" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>134</v>
@@ -14490,7 +14484,7 @@
         <v>9</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E580" s="2" t="s">
         <v>135</v>
@@ -14499,12 +14493,12 @@
         <v>10</v>
       </c>
       <c r="G580" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B581" s="2" t="s">
         <v>136</v>
@@ -14513,7 +14507,7 @@
         <v>9</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>137</v>
@@ -14522,12 +14516,12 @@
         <v>10</v>
       </c>
       <c r="G581" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B582" s="2" t="s">
         <v>138</v>
@@ -14536,7 +14530,7 @@
         <v>9</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>139</v>
@@ -14545,12 +14539,12 @@
         <v>10</v>
       </c>
       <c r="G582" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B583" s="2" t="s">
         <v>78</v>
@@ -14559,21 +14553,21 @@
         <v>9</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G583" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B584" s="2" t="s">
         <v>80</v>
@@ -14582,7 +14576,7 @@
         <v>33</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>99</v>
@@ -14591,12 +14585,12 @@
         <v>10</v>
       </c>
       <c r="G584" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B585" s="2" t="s">
         <v>100</v>
@@ -14605,7 +14599,7 @@
         <v>33</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>101</v>
@@ -14614,12 +14608,12 @@
         <v>10</v>
       </c>
       <c r="G585" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B586" s="2" t="s">
         <v>102</v>
@@ -14628,7 +14622,7 @@
         <v>33</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E586" s="2" t="s">
         <v>103</v>
@@ -14637,12 +14631,12 @@
         <v>10</v>
       </c>
       <c r="G586" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B587" s="2" t="s">
         <v>104</v>
@@ -14651,7 +14645,7 @@
         <v>33</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>105</v>
@@ -14660,12 +14654,12 @@
         <v>10</v>
       </c>
       <c r="G587" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B588" s="2" t="s">
         <v>106</v>
@@ -14674,7 +14668,7 @@
         <v>33</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E588" s="2" t="s">
         <v>107</v>
@@ -14683,12 +14677,12 @@
         <v>10</v>
       </c>
       <c r="G588" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>108</v>
@@ -14697,7 +14691,7 @@
         <v>9</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>109</v>
@@ -14706,12 +14700,12 @@
         <v>10</v>
       </c>
       <c r="G589" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>110</v>
@@ -14720,7 +14714,7 @@
         <v>9</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>111</v>
@@ -14729,12 +14723,12 @@
         <v>10</v>
       </c>
       <c r="G590" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B591" s="2" t="s">
         <v>112</v>
@@ -14743,7 +14737,7 @@
         <v>9</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>113</v>
@@ -14752,12 +14746,12 @@
         <v>10</v>
       </c>
       <c r="G591" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B592" s="2" t="s">
         <v>114</v>
@@ -14766,21 +14760,21 @@
         <v>9</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G592" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B593" s="2" t="s">
         <v>116</v>
@@ -14789,7 +14783,7 @@
         <v>33</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>117</v>
@@ -14798,12 +14792,12 @@
         <v>10</v>
       </c>
       <c r="G593" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B594" s="2" t="s">
         <v>118</v>
@@ -14812,7 +14806,7 @@
         <v>33</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E594" s="2" t="s">
         <v>119</v>
@@ -14821,12 +14815,12 @@
         <v>10</v>
       </c>
       <c r="G594" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B595" s="2" t="s">
         <v>120</v>
@@ -14835,7 +14829,7 @@
         <v>33</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E595" s="2" t="s">
         <v>121</v>
@@ -14844,12 +14838,12 @@
         <v>10</v>
       </c>
       <c r="G595" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B596" s="2" t="s">
         <v>122</v>
@@ -14858,7 +14852,7 @@
         <v>33</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E596" s="2" t="s">
         <v>123</v>
@@ -14867,12 +14861,12 @@
         <v>10</v>
       </c>
       <c r="G596" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B597" s="2" t="s">
         <v>124</v>
@@ -14881,7 +14875,7 @@
         <v>9</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E597" s="2" t="s">
         <v>125</v>
@@ -14890,12 +14884,12 @@
         <v>10</v>
       </c>
       <c r="G597" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B598" s="2" t="s">
         <v>126</v>
@@ -14904,7 +14898,7 @@
         <v>9</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E598" s="2" t="s">
         <v>127</v>
@@ -14913,12 +14907,12 @@
         <v>10</v>
       </c>
       <c r="G598" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B599" s="2" t="s">
         <v>128</v>
@@ -14927,7 +14921,7 @@
         <v>9</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E599" s="2" t="s">
         <v>129</v>
@@ -14936,12 +14930,12 @@
         <v>10</v>
       </c>
       <c r="G599" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B600" s="2" t="s">
         <v>130</v>
@@ -14950,21 +14944,21 @@
         <v>9</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G600" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B601" s="2" t="s">
         <v>132</v>
@@ -14973,7 +14967,7 @@
         <v>9</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E601" s="2" t="s">
         <v>133</v>
@@ -14982,12 +14976,12 @@
         <v>10</v>
       </c>
       <c r="G601" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B602" s="2" t="s">
         <v>134</v>
@@ -14996,7 +14990,7 @@
         <v>33</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E602" s="2" t="s">
         <v>135</v>
@@ -15005,12 +14999,12 @@
         <v>10</v>
       </c>
       <c r="G602" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B603" s="2" t="s">
         <v>136</v>
@@ -15019,7 +15013,7 @@
         <v>33</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>137</v>
@@ -15028,12 +15022,12 @@
         <v>10</v>
       </c>
       <c r="G603" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B604" s="2" t="s">
         <v>138</v>
@@ -15042,7 +15036,7 @@
         <v>33</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E604" s="2" t="s">
         <v>139</v>
@@ -15051,15 +15045,15 @@
         <v>10</v>
       </c>
       <c r="G604" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>33</v>
@@ -15068,7 +15062,7 @@
         <v>69</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F605" s="2" t="s">
         <v>10</v>
@@ -15079,10 +15073,10 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>9</v>
@@ -15091,10 +15085,10 @@
         <v>69</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F606" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G606" s="2" t="s">
         <v>60</v>
@@ -15102,10 +15096,10 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>33</v>
@@ -15114,7 +15108,7 @@
         <v>69</v>
       </c>
       <c r="E607" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F607" s="2" t="s">
         <v>10</v>
@@ -15125,10 +15119,10 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>9</v>
@@ -15137,7 +15131,7 @@
         <v>69</v>
       </c>
       <c r="E608" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F608" s="2" t="s">
         <v>10</v>
@@ -15148,10 +15142,10 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>33</v>
@@ -15160,7 +15154,7 @@
         <v>58</v>
       </c>
       <c r="E609" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F609" s="2" t="s">
         <v>10</v>
@@ -15171,10 +15165,10 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>33</v>
@@ -15183,7 +15177,7 @@
         <v>69</v>
       </c>
       <c r="E610" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F610" s="2" t="s">
         <v>10</v>
@@ -15194,10 +15188,10 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>33</v>
@@ -15206,7 +15200,7 @@
         <v>69</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F611" s="2" t="s">
         <v>10</v>
@@ -15217,10 +15211,10 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>33</v>
@@ -15229,7 +15223,7 @@
         <v>69</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F612" s="2" t="s">
         <v>10</v>
@@ -15240,10 +15234,10 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>33</v>
@@ -15252,7 +15246,7 @@
         <v>69</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F613" s="2" t="s">
         <v>10</v>
@@ -15263,10 +15257,10 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>33</v>
@@ -15275,7 +15269,7 @@
         <v>69</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F614" s="2" t="s">
         <v>10</v>
@@ -15286,10 +15280,10 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>33</v>
@@ -15298,7 +15292,7 @@
         <v>69</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F615" s="2" t="s">
         <v>10</v>
@@ -15309,10 +15303,10 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>33</v>
@@ -15321,7 +15315,7 @@
         <v>69</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F616" s="2" t="s">
         <v>10</v>
@@ -15332,10 +15326,10 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>33</v>
@@ -15344,7 +15338,7 @@
         <v>69</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F617" s="2" t="s">
         <v>10</v>
@@ -15355,10 +15349,10 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>33</v>
@@ -15367,7 +15361,7 @@
         <v>69</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F618" s="2" t="s">
         <v>10</v>
@@ -15378,19 +15372,19 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F619" s="2" t="s">
         <v>10</v>
@@ -15401,19 +15395,19 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B620" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E620" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="C620" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D620" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E620" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="F620" s="2" t="s">
         <v>10</v>
@@ -15424,19 +15418,19 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F621" s="2" t="s">
         <v>10</v>
@@ -15447,10 +15441,10 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>33</v>
@@ -15459,7 +15453,7 @@
         <v>240</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F622" s="2" t="s">
         <v>10</v>
@@ -15470,10 +15464,10 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>33</v>
@@ -15482,7 +15476,7 @@
         <v>240</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F623" s="2" t="s">
         <v>10</v>
@@ -15493,48 +15487,48 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D624" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B624" s="2" t="s">
+      <c r="E624" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C624" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D624" s="2" t="s">
+      <c r="F624" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G624" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="E624" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F624" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G624" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D625" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B625" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C625" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D625" s="2" t="s">
+      <c r="E625" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F625" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G625" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="E625" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F625" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G625" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
@@ -2249,7 +2249,7 @@
         <v>78</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>79</v>
@@ -2258,7 +2258,7 @@
         <v>80</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>60</v>
@@ -2295,7 +2295,7 @@
         <v>83</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>79</v>
@@ -2318,7 +2318,7 @@
         <v>85</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>79</v>
@@ -2341,7 +2341,7 @@
         <v>87</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>79</v>
@@ -2364,7 +2364,7 @@
         <v>89</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>79</v>
@@ -2479,7 +2479,7 @@
         <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>79</v>
@@ -2502,7 +2502,7 @@
         <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>79</v>
@@ -2525,7 +2525,7 @@
         <v>103</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>79</v>
@@ -2548,7 +2548,7 @@
         <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>79</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
@@ -4233,7 +4233,7 @@
         <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>144</v>
@@ -4256,7 +4256,7 @@
         <v>103</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>144</v>
@@ -4265,7 +4265,7 @@
         <v>104</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>145</v>
@@ -4762,7 +4762,7 @@
         <v>101</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>147</v>
@@ -4785,7 +4785,7 @@
         <v>103</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>147</v>
@@ -4794,7 +4794,7 @@
         <v>104</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>148</v>
@@ -5291,7 +5291,7 @@
         <v>101</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>150</v>
@@ -5314,7 +5314,7 @@
         <v>103</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>150</v>
@@ -5323,7 +5323,7 @@
         <v>104</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>151</v>
@@ -5820,7 +5820,7 @@
         <v>101</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>153</v>
@@ -5843,7 +5843,7 @@
         <v>103</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>153</v>
@@ -5852,7 +5852,7 @@
         <v>104</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>154</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4662" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4662" uniqueCount="369">
   <si>
     <t>Sezione</t>
   </si>
@@ -953,7 +953,10 @@
     <t>66,68,70,71,72,64</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -15937,7 +15940,7 @@
         <v>310</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>123</v>
+        <v>314</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>33</v>
@@ -15957,10 +15960,10 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>33</v>
@@ -15969,7 +15972,7 @@
         <v>69</v>
       </c>
       <c r="E643" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F643" s="2" t="s">
         <v>10</v>
@@ -15980,10 +15983,10 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>9</v>
@@ -15992,10 +15995,10 @@
         <v>69</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F644" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G644" s="2" t="s">
         <v>60</v>
@@ -16003,10 +16006,10 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>33</v>
@@ -16015,7 +16018,7 @@
         <v>69</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F645" s="2" t="s">
         <v>10</v>
@@ -16026,10 +16029,10 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>9</v>
@@ -16038,7 +16041,7 @@
         <v>69</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F646" s="2" t="s">
         <v>10</v>
@@ -16049,10 +16052,10 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>33</v>
@@ -16061,7 +16064,7 @@
         <v>58</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F647" s="2" t="s">
         <v>10</v>
@@ -16072,10 +16075,10 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>33</v>
@@ -16084,7 +16087,7 @@
         <v>69</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F648" s="2" t="s">
         <v>10</v>
@@ -16095,10 +16098,10 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>33</v>
@@ -16107,7 +16110,7 @@
         <v>69</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F649" s="2" t="s">
         <v>10</v>
@@ -16118,10 +16121,10 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>33</v>
@@ -16130,7 +16133,7 @@
         <v>69</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F650" s="2" t="s">
         <v>10</v>
@@ -16141,10 +16144,10 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>33</v>
@@ -16153,7 +16156,7 @@
         <v>69</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F651" s="2" t="s">
         <v>10</v>
@@ -16164,10 +16167,10 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>33</v>
@@ -16176,7 +16179,7 @@
         <v>69</v>
       </c>
       <c r="E652" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F652" s="2" t="s">
         <v>10</v>
@@ -16187,10 +16190,10 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>33</v>
@@ -16199,7 +16202,7 @@
         <v>69</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F653" s="2" t="s">
         <v>10</v>
@@ -16210,10 +16213,10 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>33</v>
@@ -16222,7 +16225,7 @@
         <v>69</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F654" s="2" t="s">
         <v>10</v>
@@ -16233,10 +16236,10 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>33</v>
@@ -16245,7 +16248,7 @@
         <v>69</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F655" s="2" t="s">
         <v>10</v>
@@ -16256,10 +16259,10 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>33</v>
@@ -16268,7 +16271,7 @@
         <v>69</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F656" s="2" t="s">
         <v>10</v>
@@ -16279,10 +16282,10 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>33</v>
@@ -16291,7 +16294,7 @@
         <v>277</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F657" s="2" t="s">
         <v>10</v>
@@ -16302,19 +16305,19 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F658" s="2" t="s">
         <v>10</v>
@@ -16325,10 +16328,10 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>9</v>
@@ -16337,7 +16340,7 @@
         <v>277</v>
       </c>
       <c r="E659" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F659" s="2" t="s">
         <v>10</v>
@@ -16348,10 +16351,10 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>33</v>
@@ -16360,7 +16363,7 @@
         <v>242</v>
       </c>
       <c r="E660" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F660" s="2" t="s">
         <v>10</v>
@@ -16371,10 +16374,10 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>33</v>
@@ -16383,7 +16386,7 @@
         <v>242</v>
       </c>
       <c r="E661" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F661" s="2" t="s">
         <v>10</v>
@@ -16394,10 +16397,10 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>9</v>
@@ -16406,7 +16409,7 @@
         <v>69</v>
       </c>
       <c r="E662" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F662" s="2" t="s">
         <v>10</v>
@@ -16417,10 +16420,10 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>9</v>
@@ -16429,7 +16432,7 @@
         <v>69</v>
       </c>
       <c r="E663" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F663" s="2" t="s">
         <v>10</v>
@@ -16440,71 +16443,71 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E664" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F664" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G664" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B665" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E665" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F665" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G665" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="C665" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D665" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E665" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F665" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G665" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F666" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G666" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
@@ -16530,7 +16530,7 @@
         <v>94</v>
       </c>
       <c r="F664" s="2" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="G664" s="2" t="s">
         <v>338</v>
@@ -16599,7 +16599,7 @@
         <v>100</v>
       </c>
       <c r="F667" s="2" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="G667" s="2" t="s">
         <v>338</v>
@@ -16737,7 +16737,7 @@
         <v>112</v>
       </c>
       <c r="F673" s="2" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="G673" s="2" t="s">
         <v>338</v>
@@ -16806,7 +16806,7 @@
         <v>118</v>
       </c>
       <c r="F676" s="2" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="G676" s="2" t="s">
         <v>338</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
@@ -17315,7 +17315,7 @@
         <v>104</v>
       </c>
       <c r="C698" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D698" s="2" t="s">
         <v>340</v>
@@ -17338,7 +17338,7 @@
         <v>106</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D699" s="2" t="s">
         <v>340</v>
@@ -17347,7 +17347,7 @@
         <v>107</v>
       </c>
       <c r="F699" s="2" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
       <c r="G699" s="2" t="s">
         <v>342</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5138" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5145" uniqueCount="399">
   <si>
     <t>Sezione</t>
   </si>
@@ -1203,6 +1203,12 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H734"/>
+  <dimension ref="A1:H735"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -18158,6 +18164,29 @@
         <v>392</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E735" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F735" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G735" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_012.xlsx
@@ -14961,7 +14961,7 @@
         <v>228</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G595" s="2" t="s">
         <v>59</v>
